--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE298C39-A09F-4AB6-B190-E8FF166A4EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ECFDD8-5FEA-48F7-825B-EA9C3C2F239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
